--- a/rooming.xlsx
+++ b/rooming.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>first</t>
   </si>
@@ -288,10 +288,10 @@
     </r>
   </si>
   <si>
-    <t>1/2 pension. Per person per day.</t>
-  </si>
-  <si>
-    <t>Tour course Green fee pass (Monday-Thursday)</t>
+    <t>1/2 pension. Per person per day incl. drinks.</t>
+  </si>
+  <si>
+    <t>Tour course Green fee pass (Monday-Thursday) (Amateur)</t>
   </si>
   <si>
     <t>Tour course Green fee pass (Friday-Sunday)</t>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>Stadium course Green fee pass (Friday-Sunday)</t>
+  </si>
+  <si>
+    <t>Buggy per day ( capacity: 2)</t>
   </si>
   <si>
     <t>Bus transfer Barcelona Airport - Hotel Camiral</t>
@@ -347,6 +350,9 @@
       </rPr>
       <t>Double room for a double use. Breakfast included</t>
     </r>
+  </si>
+  <si>
+    <t>1/2 pension. Per person per day.</t>
   </si>
   <si>
     <t>Green fee pass. Per person per day.</t>
@@ -6035,7 +6041,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -6429,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="100">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F25" s="101">
         <f>E25*D25</f>
@@ -6529,15 +6535,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="100">
-        <v>730</v>
+        <v>72</v>
       </c>
       <c r="F30" s="101">
         <f>E30*D30</f>
         <v>0</v>
       </c>
-      <c r="G30" t="s" s="91">
-        <v>40</v>
-      </c>
+      <c r="G30" s="91"/>
     </row>
     <row r="31" ht="13.65" customHeight="1">
       <c r="A31" s="75"/>
@@ -6559,7 +6563,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" ht="31.25" customHeight="1">
+    <row r="32" ht="13.65" customHeight="1">
       <c r="A32" s="75"/>
       <c r="B32" s="97"/>
       <c r="C32" t="s" s="98">
@@ -6569,17 +6573,17 @@
         <v>0</v>
       </c>
       <c r="E32" s="100">
-        <v>112</v>
+        <v>730</v>
       </c>
       <c r="F32" s="101">
         <f>E32*D32</f>
         <v>0</v>
       </c>
       <c r="G32" t="s" s="91">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" ht="30.15" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" ht="31.25" customHeight="1">
       <c r="A33" s="75"/>
       <c r="B33" s="97"/>
       <c r="C33" t="s" s="98">
@@ -6589,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="100">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F33" s="101">
         <f>E33*D33</f>
@@ -6599,17 +6603,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" ht="13.65" customHeight="1">
+    <row r="34" ht="30.15" customHeight="1">
       <c r="A34" s="75"/>
       <c r="B34" s="97"/>
       <c r="C34" t="s" s="98">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D34" s="102">
         <v>0</v>
       </c>
       <c r="E34" s="100">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="F34" s="101">
         <f>E34*D34</f>
@@ -6619,17 +6623,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" ht="24.65" customHeight="1">
+    <row r="35" ht="13.65" customHeight="1">
       <c r="A35" s="75"/>
       <c r="B35" s="97"/>
       <c r="C35" t="s" s="98">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D35" s="102">
         <v>0</v>
       </c>
       <c r="E35" s="100">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="F35" s="101">
         <f>E35*D35</f>
@@ -6639,17 +6643,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" ht="13.65" customHeight="1">
+    <row r="36" ht="24.65" customHeight="1">
       <c r="A36" s="75"/>
       <c r="B36" s="97"/>
       <c r="C36" t="s" s="98">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D36" s="102">
         <v>0</v>
       </c>
       <c r="E36" s="100">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="F36" s="101">
         <f>E36*D36</f>
@@ -6663,14 +6667,13 @@
       <c r="A37" s="75"/>
       <c r="B37" s="97"/>
       <c r="C37" t="s" s="98">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D37" s="102">
         <v>0</v>
       </c>
       <c r="E37" s="100">
-        <f>(238*1.1)/0.7</f>
-        <v>374.0000000000001</v>
+        <v>1</v>
       </c>
       <c r="F37" s="101">
         <f>E37*D37</f>
@@ -6684,13 +6687,13 @@
       <c r="A38" s="75"/>
       <c r="B38" s="97"/>
       <c r="C38" t="s" s="98">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D38" s="102">
         <v>0</v>
       </c>
       <c r="E38" s="100">
-        <v>380</v>
+        <v>595</v>
       </c>
       <c r="F38" s="101">
         <f>E38*D38</f>
@@ -6700,17 +6703,19 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" ht="25.65" customHeight="1">
+    <row r="39" ht="13.65" customHeight="1">
       <c r="A39" s="75"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="105">
+      <c r="B39" s="97"/>
+      <c r="C39" t="s" s="98">
+        <v>57</v>
+      </c>
+      <c r="D39" s="102">
         <v>0</v>
       </c>
-      <c r="E39" s="106">
-        <v>380</v>
-      </c>
-      <c r="F39" s="107">
+      <c r="E39" s="100">
+        <v>595</v>
+      </c>
+      <c r="F39" s="101">
         <f>E39*D39</f>
         <v>0</v>
       </c>
@@ -6718,35 +6723,44 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="108"/>
-      <c r="B40" s="109"/>
-      <c r="C40" t="s" s="110">
-        <v>56</v>
-      </c>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="112">
+    <row r="40" ht="25.65" customHeight="1">
+      <c r="A40" s="75"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="105">
         <v>0</v>
       </c>
-      <c r="G40" s="113"/>
-    </row>
-    <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="71"/>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="73"/>
+      <c r="E40" s="106">
+        <v>380</v>
+      </c>
+      <c r="F40" s="107">
+        <f>E40*D40</f>
+        <v>0</v>
+      </c>
+      <c r="G40" t="s" s="91">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" ht="13.5" customHeight="1">
+      <c r="A41" s="108"/>
+      <c r="B41" s="109"/>
+      <c r="C41" t="s" s="110">
+        <v>58</v>
+      </c>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="112">
+        <v>0</v>
+      </c>
+      <c r="G41" s="113"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="71"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
       <c r="G42" s="73"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
@@ -6787,19 +6801,17 @@
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="71"/>
-      <c r="B47" t="s" s="115">
-        <v>57</v>
-      </c>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="116"/>
-      <c r="F47" s="116"/>
-      <c r="G47" s="117"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="73"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="71"/>
       <c r="B48" t="s" s="115">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C48" s="116"/>
       <c r="D48" s="116"/>
@@ -6810,7 +6822,7 @@
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="71"/>
       <c r="B49" t="s" s="115">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" s="116"/>
       <c r="D49" s="116"/>
@@ -6819,13 +6831,24 @@
       <c r="G49" s="117"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="118"/>
-      <c r="B50" s="119"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="119"/>
-      <c r="G50" s="120"/>
+      <c r="A50" s="71"/>
+      <c r="B50" t="s" s="115">
+        <v>61</v>
+      </c>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="117"/>
+    </row>
+    <row r="51" ht="12.75" customHeight="1">
+      <c r="A51" s="118"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="119"/>
+      <c r="F51" s="119"/>
+      <c r="G51" s="120"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6883,7 +6906,7 @@
         <v>16</v>
       </c>
       <c r="D3" t="s" s="76">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="72"/>
@@ -6897,7 +6920,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s" s="78">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E4" s="77"/>
       <c r="F4" s="72"/>
@@ -6911,7 +6934,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s" s="78">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E5" s="77"/>
       <c r="F5" s="72"/>
@@ -6925,7 +6948,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s" s="78">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E6" s="77"/>
       <c r="F6" s="72"/>
@@ -6939,7 +6962,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s" s="78">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E7" s="77"/>
       <c r="F7" s="72"/>
@@ -6953,7 +6976,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s" s="80">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E8" s="77"/>
       <c r="F8" s="72"/>
@@ -6994,19 +7017,19 @@
       <c r="A12" s="71"/>
       <c r="B12" s="72"/>
       <c r="C12" t="s" s="123">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s" s="124">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s" s="124">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s" s="124">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s" s="125">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s" s="85">
         <v>31</v>
@@ -7019,7 +7042,7 @@
         <v>43577</v>
       </c>
       <c r="D13" t="s" s="127">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E13" s="128">
         <v>50</v>
@@ -7042,7 +7065,7 @@
         <v>43577</v>
       </c>
       <c r="D14" t="s" s="133">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E14" s="94">
         <v>24</v>
@@ -7065,7 +7088,7 @@
         <v>43577</v>
       </c>
       <c r="D15" t="s" s="136">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E15" s="99">
         <f>E13*2+E14</f>
@@ -7089,7 +7112,7 @@
         <v>43578</v>
       </c>
       <c r="D16" t="s" s="93">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E16" s="94">
         <v>1</v>
@@ -7111,7 +7134,7 @@
         <v>43578</v>
       </c>
       <c r="D17" t="s" s="98">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E17" s="102">
         <v>1</v>
@@ -7133,7 +7156,7 @@
         <v>43578</v>
       </c>
       <c r="D18" t="s" s="93">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E18" s="94">
         <v>40</v>
@@ -7155,7 +7178,7 @@
         <v>43578</v>
       </c>
       <c r="D19" t="s" s="98">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E19" s="102">
         <v>34</v>
@@ -7167,7 +7190,7 @@
         <v>1564</v>
       </c>
       <c r="H19" t="s" s="131">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" ht="13.65" customHeight="1">
@@ -7177,7 +7200,7 @@
         <v>43578</v>
       </c>
       <c r="D20" t="s" s="93">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E20" s="94">
         <v>62</v>
@@ -7190,7 +7213,7 @@
         <v>2356</v>
       </c>
       <c r="H20" t="s" s="131">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" ht="13.65" customHeight="1">
@@ -7200,7 +7223,7 @@
         <v>43579</v>
       </c>
       <c r="D21" t="s" s="98">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E21" s="102">
         <v>102</v>
@@ -7212,7 +7235,7 @@
         <v>357</v>
       </c>
       <c r="H21" t="s" s="131">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -7222,7 +7245,7 @@
         <v>43579</v>
       </c>
       <c r="D22" t="s" s="93">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E22" s="94">
         <v>1</v>
@@ -7244,7 +7267,7 @@
         <v>43579</v>
       </c>
       <c r="D23" t="s" s="98">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E23" s="102">
         <v>1</v>
@@ -7266,7 +7289,7 @@
         <v>43579</v>
       </c>
       <c r="D24" t="s" s="139">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E24" s="140">
         <v>40</v>
@@ -7286,7 +7309,7 @@
       <c r="B25" s="122"/>
       <c r="C25" s="143"/>
       <c r="D25" t="s" s="144">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E25" s="145"/>
       <c r="F25" s="145"/>
@@ -7294,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s" s="91">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -7322,7 +7345,7 @@
       <c r="B28" s="72"/>
       <c r="C28" s="122"/>
       <c r="D28" t="s" s="149">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E28" s="77"/>
       <c r="F28" s="72"/>
@@ -7334,7 +7357,7 @@
       <c r="B29" s="72"/>
       <c r="C29" s="122"/>
       <c r="D29" t="s" s="150">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E29" s="77"/>
       <c r="F29" s="72"/>
@@ -7346,7 +7369,7 @@
       <c r="B30" s="72"/>
       <c r="C30" s="122"/>
       <c r="D30" t="s" s="151">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E30" s="77"/>
       <c r="F30" s="72"/>
@@ -7358,7 +7381,7 @@
       <c r="B31" s="72"/>
       <c r="C31" s="122"/>
       <c r="D31" t="s" s="151">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E31" s="77"/>
       <c r="F31" s="72"/>
@@ -7370,7 +7393,7 @@
       <c r="B32" s="72"/>
       <c r="C32" s="122"/>
       <c r="D32" t="s" s="152">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E32" s="77"/>
       <c r="F32" s="72"/>
@@ -7431,7 +7454,7 @@
       <c r="A38" s="71"/>
       <c r="B38" s="72"/>
       <c r="C38" t="s" s="115">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D38" s="116"/>
       <c r="E38" s="116"/>
@@ -7443,7 +7466,7 @@
       <c r="A39" s="71"/>
       <c r="B39" s="72"/>
       <c r="C39" t="s" s="115">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D39" s="116"/>
       <c r="E39" s="116"/>
@@ -7455,7 +7478,7 @@
       <c r="A40" s="71"/>
       <c r="B40" s="72"/>
       <c r="C40" t="s" s="115">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D40" s="116"/>
       <c r="E40" s="116"/>
@@ -7523,13 +7546,13 @@
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" t="s" s="155">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s" s="155">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s" s="155">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E4" s="11"/>
     </row>
@@ -7542,7 +7565,7 @@
         <v>3239.21</v>
       </c>
       <c r="D5" t="s" s="155">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E5" s="11"/>
     </row>
@@ -7555,7 +7578,7 @@
         <v>6478.42</v>
       </c>
       <c r="D6" t="s" s="155">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E6" s="11"/>
     </row>
@@ -7568,7 +7591,7 @@
         <v>6478.42</v>
       </c>
       <c r="D7" t="s" s="155">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E7" s="11"/>
     </row>

--- a/rooming.xlsx
+++ b/rooming.xlsx
@@ -6041,7 +6041,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -6705,17 +6705,17 @@
     </row>
     <row r="39" ht="13.65" customHeight="1">
       <c r="A39" s="75"/>
-      <c r="B39" s="97"/>
-      <c r="C39" t="s" s="98">
+      <c r="B39" s="103"/>
+      <c r="C39" t="s" s="104">
         <v>57</v>
       </c>
-      <c r="D39" s="102">
+      <c r="D39" s="105">
         <v>0</v>
       </c>
-      <c r="E39" s="100">
+      <c r="E39" s="106">
         <v>595</v>
       </c>
-      <c r="F39" s="101">
+      <c r="F39" s="107">
         <f>E39*D39</f>
         <v>0</v>
       </c>
@@ -6723,44 +6723,35 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" ht="25.65" customHeight="1">
-      <c r="A40" s="75"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="105">
+    <row r="40" ht="13.5" customHeight="1">
+      <c r="A40" s="108"/>
+      <c r="B40" s="109"/>
+      <c r="C40" t="s" s="110">
+        <v>58</v>
+      </c>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="112">
         <v>0</v>
       </c>
-      <c r="E40" s="106">
-        <v>380</v>
-      </c>
-      <c r="F40" s="107">
-        <f>E40*D40</f>
-        <v>0</v>
-      </c>
-      <c r="G40" t="s" s="91">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" ht="13.5" customHeight="1">
-      <c r="A41" s="108"/>
-      <c r="B41" s="109"/>
-      <c r="C41" t="s" s="110">
-        <v>58</v>
-      </c>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="112">
-        <v>0</v>
-      </c>
-      <c r="G41" s="113"/>
+      <c r="G40" s="113"/>
+    </row>
+    <row r="41" ht="12.75" customHeight="1">
+      <c r="A41" s="71"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="73"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="71"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="114"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
       <c r="G42" s="73"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
@@ -6801,17 +6792,19 @@
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="71"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="73"/>
+      <c r="B47" t="s" s="115">
+        <v>59</v>
+      </c>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="117"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="71"/>
       <c r="B48" t="s" s="115">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C48" s="116"/>
       <c r="D48" s="116"/>
@@ -6822,7 +6815,7 @@
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="71"/>
       <c r="B49" t="s" s="115">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49" s="116"/>
       <c r="D49" s="116"/>
@@ -6831,24 +6824,13 @@
       <c r="G49" s="117"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="71"/>
-      <c r="B50" t="s" s="115">
-        <v>61</v>
-      </c>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
-      <c r="E50" s="116"/>
-      <c r="F50" s="116"/>
-      <c r="G50" s="117"/>
-    </row>
-    <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="118"/>
-      <c r="B51" s="119"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="120"/>
+      <c r="A50" s="118"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="119"/>
+      <c r="G50" s="120"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
